--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/03.BaogiaBH/BG201026_Vinaphone.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/03.BaogiaBH/BG201026_Vinaphone.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.10.23.28\nam2020\thang10\03.BaogiaBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang10\03.BaogiaBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -98,9 +98,6 @@
     <t>Tên cty/ cá nhân: Vinaphone</t>
   </si>
   <si>
-    <t>TG102SE</t>
-  </si>
-  <si>
     <t>Hà Văn Thể</t>
   </si>
   <si>
@@ -110,24 +107,6 @@
     <t>IC Nguồn</t>
   </si>
   <si>
-    <t>VT_Module_SIM800C</t>
-  </si>
-  <si>
-    <t>Module GSM</t>
-  </si>
-  <si>
-    <t>VT_Module_SIM28M</t>
-  </si>
-  <si>
-    <t>Module GPS</t>
-  </si>
-  <si>
-    <t>VT_IC_STM32F303RCT6</t>
-  </si>
-  <si>
-    <t>MCU</t>
-  </si>
-  <si>
     <t>TG102LE</t>
   </si>
   <si>
@@ -138,9 +117,6 @@
   </si>
   <si>
     <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>Lê Xuân Quang : VNPT Thừa Thiên Huế SĐT : 0917890330</t>
   </si>
   <si>
     <t>Mai Chí Tâm : TTKD VNPT Tiền Giang  SĐT : 0918652424</t>
@@ -150,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,12 +210,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -255,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -622,30 +592,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -656,7 +602,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -779,12 +725,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -797,17 +737,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -847,87 +832,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1283,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB47"/>
+  <dimension ref="A1:AB42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1314,100 +1218,100 @@
       <c r="B1" s="38"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="39"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="82"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="39"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="88"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="70"/>
     </row>
     <row r="4" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="39"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="88"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="70"/>
     </row>
     <row r="5" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="39"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
-      <c r="E5" s="92" t="s">
+      <c r="E5" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="94"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="89" t="s">
+      <c r="A6" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="91"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
       <c r="G7" s="12"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
@@ -1416,10 +1320,10 @@
     </row>
     <row r="8" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="73"/>
+      <c r="C8" s="86"/>
       <c r="D8" s="50"/>
       <c r="E8" s="51"/>
       <c r="F8" s="51"/>
@@ -1431,13 +1335,13 @@
     </row>
     <row r="9" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
       <c r="G9" s="13"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -1446,10 +1350,10 @@
     </row>
     <row r="10" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="73"/>
+      <c r="C10" s="86"/>
       <c r="D10" s="50"/>
       <c r="E10" s="51"/>
       <c r="F10" s="51"/>
@@ -1462,10 +1366,10 @@
     </row>
     <row r="11" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="52"/>
       <c r="E11" s="53"/>
       <c r="F11" s="53"/>
@@ -1504,261 +1408,185 @@
       <c r="I12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="60" t="s">
+      <c r="J12" s="57" t="s">
         <v>6</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="AB12" s="15"/>
     </row>
     <row r="13" spans="1:28" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56">
+      <c r="A13" s="54">
         <v>1</v>
       </c>
-      <c r="B13" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="57">
+      <c r="B13" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="55">
         <v>868183034532643</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="60">
+      <c r="H13" s="57">
         <v>1</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="56">
         <v>50000</v>
       </c>
-      <c r="J13" s="58">
+      <c r="J13" s="56">
         <v>50000</v>
       </c>
-      <c r="K13" s="103" t="s">
-        <v>40</v>
+      <c r="K13" s="58" t="s">
+        <v>32</v>
       </c>
       <c r="AB13" s="15"/>
     </row>
-    <row r="14" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
-        <v>2</v>
-      </c>
-      <c r="B14" s="56" t="s">
+    <row r="14" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="46">
+        <f>SUM(J13:J13)</f>
+        <v>50000</v>
+      </c>
+      <c r="K14" s="46"/>
+      <c r="AB14" s="15"/>
+    </row>
+    <row r="15" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="26"/>
+      <c r="AB15" s="15"/>
+    </row>
+    <row r="16" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="67"/>
+      <c r="AB16" s="15"/>
+    </row>
+    <row r="17" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="43"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="65"/>
+      <c r="AB17" s="15"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
+      <c r="AB18" s="15"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="40"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="31"/>
+      <c r="AB19" s="15"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="31"/>
+      <c r="AB20" s="15"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
+      <c r="AB21" s="15"/>
+    </row>
+    <row r="22" spans="1:28" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="44"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="57">
-        <v>861694031755349</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="59">
-        <v>1</v>
-      </c>
-      <c r="I14" s="58">
-        <v>50000</v>
-      </c>
-      <c r="J14" s="58">
-        <v>50000</v>
-      </c>
-      <c r="K14" s="100" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB14" s="15"/>
-    </row>
-    <row r="15" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="97">
-        <v>3</v>
-      </c>
-      <c r="B15" s="97" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="95">
-        <v>861964031748211</v>
-      </c>
-      <c r="D15" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="61">
-        <v>1</v>
-      </c>
-      <c r="I15" s="62">
-        <v>220000</v>
-      </c>
-      <c r="J15" s="62">
-        <v>220000</v>
-      </c>
-      <c r="K15" s="101"/>
-      <c r="AB15" s="15"/>
-    </row>
-    <row r="16" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="98"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="61">
-        <v>1</v>
-      </c>
-      <c r="I16" s="62">
-        <v>310000</v>
-      </c>
-      <c r="J16" s="62">
-        <v>310000</v>
-      </c>
-      <c r="K16" s="101"/>
-      <c r="AB16" s="15"/>
-    </row>
-    <row r="17" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="63">
-        <v>1</v>
-      </c>
-      <c r="I17" s="62">
-        <v>150000</v>
-      </c>
-      <c r="J17" s="62">
-        <v>150000</v>
-      </c>
-      <c r="K17" s="101"/>
-      <c r="AB17" s="15"/>
-    </row>
-    <row r="18" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="98"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="61">
-        <v>1</v>
-      </c>
-      <c r="I18" s="62">
-        <v>50000</v>
-      </c>
-      <c r="J18" s="62">
-        <v>50000</v>
-      </c>
-      <c r="K18" s="102"/>
-      <c r="AB18" s="15"/>
-    </row>
-    <row r="19" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="46">
-        <f>SUM(J13:J18)</f>
-        <v>830000</v>
-      </c>
-      <c r="K19" s="46"/>
-      <c r="AB19" s="15"/>
-    </row>
-    <row r="20" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="26"/>
-      <c r="AB20" s="15"/>
-    </row>
-    <row r="21" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="85"/>
-      <c r="AB21" s="15"/>
-    </row>
-    <row r="22" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="83"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="63"/>
       <c r="AB22" s="15"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
@@ -1766,38 +1594,38 @@
       <c r="B23" s="40"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="31"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="32"/>
       <c r="AB23" s="15"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
       <c r="B24" s="40"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="30" t="s">
-        <v>12</v>
-      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="33"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
       <c r="K24" s="31"/>
       <c r="AB24" s="15"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="40"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="30"/>
       <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
+      <c r="H25" s="30"/>
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
       <c r="K25" s="31"/>
@@ -1808,29 +1636,27 @@
       <c r="B26" s="40"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="30"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
+      <c r="H26" s="30"/>
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
       <c r="K26" s="31"/>
       <c r="AB26" s="15"/>
     </row>
-    <row r="27" spans="1:28" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="81"/>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="31"/>
       <c r="AB27" s="15"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
@@ -1839,153 +1665,70 @@
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="30"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="32"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="31"/>
       <c r="AB28" s="15"/>
     </row>
-    <row r="29" spans="1:28" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="31"/>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="37"/>
       <c r="AB29" s="15"/>
     </row>
-    <row r="30" spans="1:28" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="31"/>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB30" s="15"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="31"/>
       <c r="AB31" s="15"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="31"/>
       <c r="AB32" s="15"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="31"/>
+    <row r="33" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB33" s="15"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="37"/>
+    <row r="34" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB34" s="15"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB35" s="15"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB36" s="15"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB37" s="15"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB38" s="15"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB39" s="15"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB40" s="15"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB41" s="15"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB42" s="15"/>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="AB43" s="15"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="AB44" s="15"/>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="AB45" s="15"/>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="AB46" s="15"/>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="AB47" s="15"/>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
-  <mergeCells count="20">
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="K14:K18"/>
+  <mergeCells count="15">
     <mergeCell ref="E1:K2"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="B8:C8"/>
@@ -1993,6 +1736,14 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="E5:K5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" display="mailto:contact@vn-et.com"/>
